--- a/biology/Zoologie/Hudson_et_Rex/Hudson_et_Rex.xlsx
+++ b/biology/Zoologie/Hudson_et_Rex/Hudson_et_Rex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hudson et Rex est une série télévisée canadienne policière, basée sur la série autrichienne puis italienne Rex, chien flic, et diffusée depuis le 25 mars 2019[1] sur Citytv.
-Au Québec, la série est diffusée depuis le 7 avril 2020 sur Max[2], en France depuis le 21 juin 2020 sur France 3[3] et en Belgique depuis [Quand ?] sur RTBF[réf. souhaitée]. Elle reste inédite en Suisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hudson et Rex est une série télévisée canadienne policière, basée sur la série autrichienne puis italienne Rex, chien flic, et diffusée depuis le 25 mars 2019 sur Citytv.
+Au Québec, la série est diffusée depuis le 7 avril 2020 sur Max, en France depuis le 21 juin 2020 sur France 3 et en Belgique depuis [Quand ?] sur RTBF[réf. souhaitée]. Elle reste inédite en Suisse.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inspecteur Charlie Hudson est un inspecteur de la division des crimes majeurs de la police de Saint-Jean de Terre-Neuve. Hudson a grandi en lisant des romans policiers et, par conséquent, a toujours voulu être inspecteur de police. Il est associé à Rex, un berger allemand, après la mort de son partenaire humain et évite ainsi à Rex d'être euthanasié. L'odorat et l’ouïe de Rex sont essentiels pour aider l'inspecteur Hudson à faire avancer les enquêtes dans chaque épisode. Le duo reçoit l'aide du commandant Donovan, de la technicienne de police scientifique Sarah Truong et du spécialiste en informatique Jesse Mills à chaque épisode pour recueillir et interpréter les preuves.
 La première saison commence quelque temps après le retour de Hudson à Saint-Jean de Terre-Neuve, sa ville natale, après son divorce avec sa femme. Le premier cas de la série est un enlèvement. La plupart des épisodes font état de meurtres différents, chacun avec des rebondissements uniques.
@@ -546,19 +560,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-John Reardon (en) (VF : Anatole de Bodinat) : inspecteur Charlie Hudson, équipier et maître de Rex
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Reardon (en) (VF : Anatole de Bodinat) : inspecteur Charlie Hudson, équipier et maître de Rex
 Mayko Nguyen (VF : Laurence Dourlens) : Dr Sarah Truong, technicienne de police scientifique
 Kevin Hanchard (en) (VF : Jean-Baptiste Anoumon) : Commandant Joseph Donovan
 Justin Kelly (VF : Hervé Grull) : Jesse Mills, spécialiste en informatique
 Diesel vom Burgimwald : Rex
 Raven Dauda : Sergent Jan Renley, dresseuse de Rex (saison 1)
-Bridget Wareham (VF : Claire Baradat) : Dr Karma Poole (Médecin Légiste)
-Acteurs récurrents et invités
- Source et légende : version française (VF) sur RS Doublage[4]
-Rex
-Dans ce remake canadien de Rex, chien flic, Diesel vom Burgimwald, le berger allemand de 3 ans qui joue le rôle de Rex est un lointain cousin de Santo vom Haus Zieglmayer le héros de Rex, chien flic (Saison 1 à 4) mort en 2003 à l'âge de 12 ans. Diesel a été choisi pour sa ressemblance avec Santo. Ce sont les neveux de Diesel qui le doublent pour les cascades[5].
-</t>
+Bridget Wareham (VF : Claire Baradat) : Dr Karma Poole (Médecin Légiste)</t>
         </is>
       </c>
     </row>
@@ -583,15 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le tournage a débuté en octobre 2018, avec une production continue à Saint-Jean de Terre-Neuve, Terre-Neuve-et-Labrador.
-Le 30 mai 2019, Shaftesbury et Pope Productions ont annoncé que Citytv avait renouvelé pour la saison deux[6] et était prévue pour la saison 2019-2020. La saison 2 a été diffusée à partir du 24 septembre 2019.
-En juin 2020, il a été annoncé lors de l'émission matinale Breakfast Television que la saison 3 commencera sa production en juillet, en veillant à respecter les lignes directrices provinciales en matière de santé publique concernant le COVID-19.
-Le 21 avril 2022, le renouvellement de la série pour une cinquième saison est annoncée[source secondaire souhaitée]. Un double épisode sera tourné à l'automne 2022 dans la région de North Bay, en Ontario[7].
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -617,10 +634,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fiche technique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rex</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce remake canadien de Rex, chien flic, Diesel vom Burgimwald, le berger allemand de 3 ans qui joue le rôle de Rex est un lointain cousin de Santo vom Haus Zieglmayer le héros de Rex, chien flic (Saison 1 à 4) mort en 2003 à l'âge de 12 ans. Diesel a été choisi pour sa ressemblance avec Santo. Ce sont les neveux de Diesel qui le doublent pour les cascades.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -643,12 +671,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a débuté en octobre 2018, avec une production continue à Saint-Jean de Terre-Neuve, Terre-Neuve-et-Labrador.
+Le 30 mai 2019, Shaftesbury et Pope Productions ont annoncé que Citytv avait renouvelé pour la saison deux et était prévue pour la saison 2019-2020. La saison 2 a été diffusée à partir du 24 septembre 2019.
+En juin 2020, il a été annoncé lors de l'émission matinale Breakfast Television que la saison 3 commencera sa production en juillet, en veillant à respecter les lignes directrices provinciales en matière de santé publique concernant le COVID-19.
+Le 21 avril 2022, le renouvellement de la série pour une cinquième saison est annoncée[source secondaire souhaitée]. Un double épisode sera tourné à l'automne 2022 dans la région de North Bay, en Ontario.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Première saison (2019)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Première saison (2019)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Course contre la montre (The Hunt)
 Une mort spectaculaire (Fearless Freaks)
 Hantés par le passé (Haunted by the Past)
@@ -662,7 +760,43 @@
 Sang et eau (Bad Water Rising)
 Trou noir (A Cult Education)
 La vérité est ailleurs (The Rex Files)
-Deuxième saison (2019-2020)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2019-2020)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les diamants sont éternels (Man of Consequence)
 Froid comme la glace (Over Ice)
 Travail d'équipe (Blind Justice)
@@ -682,8 +816,43 @@
 Sans contrefaçon (The Graveyard Shift)
 Le Maître et l'élève (Old Dog New Tricks)
 Harcèlement (In a Family Way)
-Troisième saison (2021)
-Elle est diffusée depuis le 5 janvier 2021[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Troisième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée depuis le 5 janvier 2021.
 Comment tout a commencé (Origin Story)
 Chasse à l'homme (Manhunt)
 En terres sauvages (Into the Wild)
@@ -700,8 +869,43 @@
 La Double vie de Levi (The Secret Life of Levi)
 Désillusion (Seeing Is Deceiving)
 Braquage (The Art of the Steal)
-Quatrième saison (2021-2022)
-Elle est diffusée depuis le 7 octobre 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2021-2022)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée depuis le 7 octobre 2021.
 Sid et Nancy (Sid and Nancy)
 Pop star (Oops I Bit It Again)
 Rex cherche et trouve (Rex Marks the Spot)
@@ -718,8 +922,43 @@
 Rien ne va plus (Roll the Bones)
 Mardi gras (Nightmare on Water St.)
 Comme chien et chat (Dog Days are Over)
-Cinquième saison (2022-2023)
-Elle est diffusée depuis le 25 septembre 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cinquième saison (2022-2023)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée depuis le 25 septembre 2022.
 Suspect n°1 (Lost in the Barrens)
 Dans les cordes (Punch Drunk Glove)
 Cours Donovan, cours (Run, Donovan, Run)
@@ -740,8 +979,43 @@
 Plus rien à perdre (Jail Break)
 Chacun ses goûts (The Cook, the Chief, the Cop and His Lover)
 Un dernier pour la route (One for the Road)
-Sixième saison (2023-2024)
-Elle est diffusée depuis le 4 octobre 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sixième saison (2023-2024)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Elle est diffusée depuis le 4 octobre 2023.
 Ghost Ship
 The Good, The Bad, and the Rex
 Hound &amp; Vision
@@ -750,31 +1024,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hudson_et_Rex</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hudson_et_Rex</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
